--- a/biology/Zoologie/Babbit_et_Catstello/Babbit_et_Catstello.xlsx
+++ b/biology/Zoologie/Babbit_et_Catstello/Babbit_et_Catstello.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Babbit et Catstello (Babbit and Catstello) sont des duos de personnages des cartoons Looney Tunes reprenant les caractéristiques du duo comique Abbott et Costello. Créé par Bob Clampett, le premier duo est représenté en 1942 dans le dessin animé Histoire de chatons (A Tale of Two Kitties).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,12 +554,85 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1942
-Histoire de chatons (A Tale of Two Kitties) (duo version avec chats)
-1945
-Tale of Two Mice (duo version avec souris)
-1946
-Hollywood Canine Canteen (duo version avec chiens)
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Histoire de chatons (A Tale of Two Kitties) (duo version avec chats)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Babbit_et_Catstello</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Babbit_et_Catstello</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tale of Two Mice (duo version avec souris)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Babbit_et_Catstello</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Babbit_et_Catstello</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hollywood Canine Canteen (duo version avec chiens)
 The Mouse-Merized Cat (duo version avec souris)</t>
         </is>
       </c>
